--- a/Project Management/GANTT_Schedule (version 2).xlsx
+++ b/Project Management/GANTT_Schedule (version 2).xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A502562C4091FE9A830CCBA153E5C464DF96498B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_A502562C4091FE9A830CCBA153E5C464DF96498B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C924B4D2-94D5-49DD-A096-53C65FF7C9B2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13545" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,8 +217,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -409,10 +409,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,16 +442,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,16 +490,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83609</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -514,8 +514,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8187055" y="1562100"/>
-          <a:ext cx="2540" cy="3762375"/>
+          <a:off x="22448309" y="352425"/>
+          <a:ext cx="2116" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -805,8 +805,8 @@
   <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="29">
-        <v>45336</v>
+        <v>45389</v>
       </c>
       <c r="F3" s="29"/>
       <c r="H3" s="30"/>
@@ -1413,11 +1413,11 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
@@ -1466,9 +1466,9 @@
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
@@ -1516,8 +1516,8 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
@@ -1566,16 +1566,16 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
@@ -1624,10 +1624,10 @@
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
@@ -1676,9 +1676,9 @@
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
       <c r="AK17" s="19"/>
       <c r="AL17" s="19"/>
       <c r="AM17" s="18"/>
@@ -1883,15 +1883,15 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -2214,7 +2214,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="22">
-        <v>45017</v>
+        <v>45042</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
